--- a/config_7.13/fishbowl_config.xlsx
+++ b/config_7.13/fishbowl_config.xlsx
@@ -293,115 +293,115 @@
     <t>总是成群结队，喜欢躲在草里玩捉迷藏。</t>
   </si>
   <si>
+    <t>3dby_icon_yu35</t>
+  </si>
+  <si>
+    <t>小海龟</t>
+  </si>
+  <si>
+    <t>7200,7200,7200,0</t>
+  </si>
+  <si>
+    <t>9,9,9,9</t>
+  </si>
+  <si>
+    <t>9,9,9,41</t>
+  </si>
+  <si>
+    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+  </si>
+  <si>
+    <t>狮子鱼</t>
+  </si>
+  <si>
+    <t>10,10,10,10</t>
+  </si>
+  <si>
+    <t>10,10,10,42</t>
+  </si>
+  <si>
+    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu43</t>
+  </si>
+  <si>
+    <t>魔鬼鱼</t>
+  </si>
+  <si>
+    <t>14400,14400,14400,0</t>
+  </si>
+  <si>
+    <t>30,30,30,0</t>
+  </si>
+  <si>
+    <t>"中量","中量","中量","中量","中量","中量","中量","中量",</t>
+  </si>
+  <si>
+    <t>11,11,11,11</t>
+  </si>
+  <si>
+    <t>11,11,11,43</t>
+  </si>
+  <si>
+    <t>绿色彩贝、普通抽奖、高级抽奖</t>
+  </si>
+  <si>
+    <t>冰冷的外表，不喜欢接触其他人，是个难以靠近的家伙。</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu47</t>
+  </si>
+  <si>
+    <t>虎鲨</t>
+  </si>
+  <si>
+    <t>"中量","大量","中量","大量","中量","大量","中量","大量",</t>
+  </si>
+  <si>
+    <t>12,12,12,12</t>
+  </si>
+  <si>
+    <t>12,12,12,44</t>
+  </si>
+  <si>
+    <t>骄傲自大，总认为自己是海底的霸主，常常自找苦头。</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+  </si>
+  <si>
+    <t>锯齿鲨</t>
+  </si>
+  <si>
+    <t>50,50,50,0</t>
+  </si>
+  <si>
+    <t>13,13,13,13</t>
+  </si>
+  <si>
+    <t>13,13,13,45</t>
+  </si>
+  <si>
+    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
+  </si>
+  <si>
     <t>3dby_icon_yu34</t>
   </si>
   <si>
     <t>锤头鲨</t>
   </si>
   <si>
-    <t>7200,7200,7200,0</t>
-  </si>
-  <si>
-    <t>9,9,9,9</t>
-  </si>
-  <si>
-    <t>9,9,9,41</t>
-  </si>
-  <si>
-    <t>擅长跳舞，梦想是成为一名优雅的水上芭蕾舞者。</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu33</t>
-  </si>
-  <si>
-    <t>锯齿鲨</t>
-  </si>
-  <si>
-    <t>10,10,10,10</t>
-  </si>
-  <si>
-    <t>10,10,10,42</t>
+    <t>14,14,14,14</t>
+  </si>
+  <si>
+    <t>14,14,14,46</t>
   </si>
   <si>
     <t>喜欢在黑暗中惊吓别人，但捉迷藏从来没有赢过。</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu35</t>
-  </si>
-  <si>
-    <t>小海龟</t>
-  </si>
-  <si>
-    <t>14400,14400,14400,0</t>
-  </si>
-  <si>
-    <t>30,30,30,0</t>
-  </si>
-  <si>
-    <t>"中量","中量","中量","中量","中量","中量","中量","中量",</t>
-  </si>
-  <si>
-    <t>11,11,11,11</t>
-  </si>
-  <si>
-    <t>11,11,11,43</t>
-  </si>
-  <si>
-    <t>绿色彩贝、普通抽奖、高级抽奖</t>
-  </si>
-  <si>
-    <t>小海龟一直是海里的广播员，只要他知道的事情大家也会第一时间知道。</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu46</t>
-  </si>
-  <si>
-    <t>狮子鱼</t>
-  </si>
-  <si>
-    <t>"中量","大量","中量","大量","中量","大量","中量","大量",</t>
-  </si>
-  <si>
-    <t>12,12,12,12</t>
-  </si>
-  <si>
-    <t>12,12,12,44</t>
-  </si>
-  <si>
-    <t>狮子鱼对于任何事物似乎都不感兴趣，当然这只有在他吃饱以后。</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu43</t>
-  </si>
-  <si>
-    <t>魔鬼鱼</t>
-  </si>
-  <si>
-    <t>50,50,50,0</t>
-  </si>
-  <si>
-    <t>13,13,13,13</t>
-  </si>
-  <si>
-    <t>13,13,13,45</t>
-  </si>
-  <si>
-    <t>冰冷的外表，不喜欢接触其他人，是个难以靠近的家伙。</t>
-  </si>
-  <si>
-    <t>3dby_icon_yu47</t>
-  </si>
-  <si>
-    <t>虎鲨</t>
-  </si>
-  <si>
-    <t>14,14,14,14</t>
-  </si>
-  <si>
-    <t>14,14,14,46</t>
-  </si>
-  <si>
-    <t>骄傲自大，总认为自己是海底的霸主，常常自找苦头。</t>
   </si>
   <si>
     <t>3dby_icon_yu22</t>
@@ -1531,10 +1531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1557,8 +1557,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1571,76 +1601,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1659,6 +1624,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1667,16 +1639,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1692,6 +1663,19 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1700,13 +1684,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1763,7 +1763,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1775,25 +1847,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1805,55 +1871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,31 +1883,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,13 +1901,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1962,15 +1968,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1982,32 +1979,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2036,15 +2007,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2059,6 +2021,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2067,10 +2073,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2079,139 +2085,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2284,13 +2290,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2626,9 +2650,7 @@
   <dimension ref="A1:W33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection activeCell="E10" sqref="E10:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2649,7 +2671,7 @@
     <col min="16" max="16" width="15.5" customWidth="1"/>
     <col min="17" max="17" width="14.375" customWidth="1"/>
     <col min="18" max="18" width="40.125" customWidth="1"/>
-    <col min="19" max="19" width="24.375" customWidth="1"/>
+    <col min="19" max="19" width="81.625" customWidth="1"/>
     <col min="20" max="20" width="13.375" customWidth="1"/>
     <col min="21" max="21" width="14.375" customWidth="1"/>
     <col min="22" max="22" width="13.125" customWidth="1"/>
@@ -2721,16 +2743,16 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="36" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="5"/>
@@ -2761,10 +2783,10 @@
       <c r="I2" s="17">
         <v>10</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L2" s="5" t="s">
@@ -2827,10 +2849,10 @@
       <c r="I3" s="17">
         <v>10</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L3" s="5" t="s">
@@ -2893,10 +2915,10 @@
       <c r="I4" s="17">
         <v>10</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L4" s="5" t="s">
@@ -2959,10 +2981,10 @@
       <c r="I5" s="17">
         <v>10</v>
       </c>
-      <c r="J5" s="27" t="s">
+      <c r="J5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="28" t="s">
+      <c r="K5" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L5" s="5" t="s">
@@ -3025,10 +3047,10 @@
       <c r="I6" s="17">
         <v>10</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L6" s="5" t="s">
@@ -3091,10 +3113,10 @@
       <c r="I7" s="17">
         <v>10</v>
       </c>
-      <c r="J7" s="27" t="s">
+      <c r="J7" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="5" t="s">
@@ -3157,10 +3179,10 @@
       <c r="I8" s="17">
         <v>10</v>
       </c>
-      <c r="J8" s="27" t="s">
+      <c r="J8" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="K8" s="28" t="s">
+      <c r="K8" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L8" s="5" t="s">
@@ -3223,10 +3245,10 @@
       <c r="I9" s="18">
         <v>30</v>
       </c>
-      <c r="J9" s="27" t="s">
+      <c r="J9" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="K9" s="28" t="s">
+      <c r="K9" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L9" s="5" t="s">
@@ -3250,68 +3272,68 @@
       <c r="R9" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S9" s="31" t="s">
+      <c r="S9" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="31" t="s">
+      <c r="T9" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="31"/>
+      <c r="U9" s="37"/>
       <c r="V9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="3">
+      <c r="A10" s="26">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>9</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="B10" s="26">
+        <v>11</v>
+      </c>
+      <c r="C10" s="26">
         <v>0.8</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="3">
+      <c r="F10" s="27"/>
+      <c r="G10" s="26">
         <v>2</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="28">
         <v>5</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="28">
         <v>30</v>
       </c>
-      <c r="J10" s="27" t="s">
+      <c r="J10" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="K10" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="28" t="s">
         <v>80</v>
       </c>
       <c r="S10" t="s">
@@ -3325,56 +3347,56 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="3">
+      <c r="A11" s="26">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
-        <v>10</v>
-      </c>
-      <c r="C11" s="24">
+      <c r="B11" s="26">
+        <v>12</v>
+      </c>
+      <c r="C11" s="26">
         <v>0.8</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="3">
+      <c r="F11" s="27"/>
+      <c r="G11" s="26">
         <v>2</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="28">
         <v>5</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="28">
         <v>30</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="K11" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="28" t="s">
         <v>80</v>
       </c>
       <c r="S11" t="s">
@@ -3388,56 +3410,56 @@
       </c>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="3">
+      <c r="A12" s="26">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
-        <v>11</v>
-      </c>
-      <c r="C12" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="26">
+        <v>17</v>
+      </c>
+      <c r="C12" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="25"/>
-      <c r="G12" s="3">
+      <c r="F12" s="29"/>
+      <c r="G12" s="26">
         <v>2</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="28">
         <v>5</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="28">
         <v>30</v>
       </c>
-      <c r="J12" s="27" t="s">
+      <c r="J12" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="K12" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="R12" s="18" t="s">
+      <c r="R12" s="28" t="s">
         <v>100</v>
       </c>
       <c r="S12" t="s">
@@ -3451,56 +3473,56 @@
       </c>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="3">
+      <c r="A13" s="26">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
-        <v>12</v>
-      </c>
-      <c r="C13" s="24">
-        <v>0.8</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="B13" s="26">
+        <v>18</v>
+      </c>
+      <c r="C13" s="26">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="25"/>
-      <c r="G13" s="3">
+      <c r="F13" s="27"/>
+      <c r="G13" s="26">
         <v>2</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="28">
         <v>5</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="28">
         <v>30</v>
       </c>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="K13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="M13" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="N13" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="R13" s="18" t="s">
+      <c r="R13" s="28" t="s">
         <v>100</v>
       </c>
       <c r="S13" t="s">
@@ -3514,56 +3536,56 @@
       </c>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="3">
+      <c r="A14" s="26">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
-        <v>17</v>
-      </c>
-      <c r="C14" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="B14" s="26">
+        <v>10</v>
+      </c>
+      <c r="C14" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="3">
+      <c r="F14" s="27"/>
+      <c r="G14" s="26">
         <v>2</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="28">
         <v>5</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="28">
         <v>30</v>
       </c>
-      <c r="J14" s="27" t="s">
+      <c r="J14" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="R14" s="18" t="s">
+      <c r="R14" s="28" t="s">
         <v>100</v>
       </c>
       <c r="S14" t="s">
@@ -3577,56 +3599,56 @@
       </c>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="3">
+      <c r="A15" s="26">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
-        <v>18</v>
-      </c>
-      <c r="C15" s="24">
-        <v>0.6</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="26">
+        <v>9</v>
+      </c>
+      <c r="C15" s="26">
+        <v>0.8</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="25"/>
-      <c r="G15" s="3">
+      <c r="F15" s="27"/>
+      <c r="G15" s="26">
         <v>2</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H15" s="28">
         <v>5</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="28">
         <v>30</v>
       </c>
-      <c r="J15" s="27" t="s">
+      <c r="J15" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="K15" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="28" t="s">
         <v>100</v>
       </c>
       <c r="S15" t="s">
@@ -3665,10 +3687,10 @@
       <c r="I16" s="19">
         <v>50</v>
       </c>
-      <c r="J16" s="27" t="s">
+      <c r="J16" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="K16" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L16" s="5" t="s">
@@ -3728,10 +3750,10 @@
       <c r="I17" s="19">
         <v>50</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L17" s="5" t="s">
@@ -3791,10 +3813,10 @@
       <c r="I18" s="19">
         <v>50</v>
       </c>
-      <c r="J18" s="27" t="s">
+      <c r="J18" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="5" t="s">
@@ -3819,7 +3841,7 @@
         <v>125</v>
       </c>
       <c r="S18" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>34</v>
@@ -3854,10 +3876,10 @@
       <c r="I19" s="19">
         <v>50</v>
       </c>
-      <c r="J19" s="27" t="s">
+      <c r="J19" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L19" s="5" t="s">
@@ -3917,10 +3939,10 @@
       <c r="I20" s="19">
         <v>50</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="J20" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L20" s="5" t="s">
@@ -3980,10 +4002,10 @@
       <c r="I21" s="19">
         <v>50</v>
       </c>
-      <c r="J21" s="27" t="s">
+      <c r="J21" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K21" s="28" t="s">
+      <c r="K21" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="5" t="s">
@@ -4043,10 +4065,10 @@
       <c r="I22" s="19">
         <v>50</v>
       </c>
-      <c r="J22" s="27" t="s">
+      <c r="J22" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K22" s="28" t="s">
+      <c r="K22" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="5" t="s">
@@ -4106,10 +4128,10 @@
       <c r="I23" s="19">
         <v>50</v>
       </c>
-      <c r="J23" s="27" t="s">
+      <c r="J23" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K23" s="28" t="s">
+      <c r="K23" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L23" s="5" t="s">
@@ -4169,10 +4191,10 @@
       <c r="I24" s="20">
         <v>80</v>
       </c>
-      <c r="J24" s="27" t="s">
+      <c r="J24" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="K24" s="28" t="s">
+      <c r="K24" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L24" s="5" t="s">
@@ -4232,10 +4254,10 @@
       <c r="I25" s="20">
         <v>80</v>
       </c>
-      <c r="J25" s="27" t="s">
+      <c r="J25" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K25" s="28" t="s">
+      <c r="K25" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L25" s="5" t="s">
@@ -4295,10 +4317,10 @@
       <c r="I26" s="21">
         <v>100</v>
       </c>
-      <c r="J26" s="27" t="s">
+      <c r="J26" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="28" t="s">
+      <c r="K26" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L26" s="5" t="s">
@@ -4358,10 +4380,10 @@
       <c r="I27" s="21">
         <v>100</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K27" s="28" t="s">
+      <c r="K27" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L27" s="5" t="s">
@@ -4421,10 +4443,10 @@
       <c r="I28" s="21">
         <v>100</v>
       </c>
-      <c r="J28" s="27" t="s">
+      <c r="J28" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="K28" s="28" t="s">
+      <c r="K28" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L28" s="5" t="s">
@@ -4484,10 +4506,10 @@
       <c r="I29" s="21">
         <v>100</v>
       </c>
-      <c r="J29" s="27" t="s">
+      <c r="J29" s="30" t="s">
         <v>204</v>
       </c>
-      <c r="K29" s="28" t="s">
+      <c r="K29" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L29" s="5" t="s">
@@ -4547,10 +4569,10 @@
       <c r="I30" s="21">
         <v>100</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="K30" s="28" t="s">
+      <c r="K30" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L30" s="5" t="s">
@@ -4610,10 +4632,10 @@
       <c r="I31" s="21">
         <v>100</v>
       </c>
-      <c r="J31" s="27" t="s">
+      <c r="J31" s="30" t="s">
         <v>210</v>
       </c>
-      <c r="K31" s="28" t="s">
+      <c r="K31" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L31" s="5" t="s">
@@ -4672,10 +4694,10 @@
       <c r="I32" s="21">
         <v>100</v>
       </c>
-      <c r="J32" s="27" t="s">
+      <c r="J32" s="30" t="s">
         <v>222</v>
       </c>
-      <c r="K32" s="28" t="s">
+      <c r="K32" s="31" t="s">
         <v>25</v>
       </c>
       <c r="L32" s="5" t="s">
@@ -4719,8 +4741,8 @@
       <c r="G33" s="3"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="28"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="31"/>
       <c r="L33" s="5"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
@@ -6237,8 +6259,8 @@
   <sheetPr/>
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>

--- a/config_7.13/fishbowl_config.xlsx
+++ b/config_7.13/fishbowl_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="653"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="653" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="fish|鱼配置" sheetId="5" r:id="rId1"/>
@@ -1531,10 +1531,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1557,9 +1557,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1567,6 +1566,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1588,29 +1609,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1624,6 +1631,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -1631,32 +1666,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1670,39 +1682,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1769,7 +1769,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1781,7 +1799,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1793,13 +1829,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,37 +1871,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,49 +1895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1907,19 +1907,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1969,6 +1969,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1983,59 +1998,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2057,11 +2035,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2073,10 +2073,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2085,137 +2085,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2649,7 +2649,7 @@
   <sheetPr/>
   <dimension ref="A1:W33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10:E15"/>
     </sheetView>
   </sheetViews>
@@ -7868,8 +7868,8 @@
   <sheetPr/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8000,7 +8000,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>99999999999</v>
+        <v>-1</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>329</v>
